--- a/BOM_arrow1.xlsx
+++ b/BOM_arrow1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t xml:space="preserve">                Bill Of Materials (BOM) OctopusBot BT only V1R2</t>
   </si>
@@ -227,6 +227,18 @@
   <si>
     <t>450-1759-1-ND</t>
   </si>
+  <si>
+    <t>CP-43516SJGRCT-ND</t>
+  </si>
+  <si>
+    <t>CONN AUDIO JACK 3.5MM 4COND SMD</t>
+  </si>
+  <si>
+    <t>PESD0603-240CT-ND</t>
+  </si>
+  <si>
+    <t>ESD PROTECTOR 0603 24VDC POLYMER</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +247,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;\ * #,##0.000_);_(&quot;$&quot;\ * \(#,##0.000\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.000_);_(&quot;$&quot;\ * \(#,##0.000\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -412,11 +424,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,9 +475,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -476,12 +482,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -489,9 +489,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyBorder="1"/>
@@ -515,7 +512,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
@@ -824,7 +837,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,869 +856,894 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="32">
         <v>9.9499999999999993</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="32">
         <f>B12*H12</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="32">
         <v>0.95</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="32">
         <f t="shared" ref="I13:I19" si="0">B13*H13</f>
         <v>0.95</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="40"/>
+      <c r="K13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="32">
         <v>37000</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="32">
         <f t="shared" si="0"/>
         <v>37000</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="21"/>
+      <c r="K14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="32">
         <v>3.89</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="32">
         <f t="shared" si="0"/>
         <v>3.89</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="13" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="32">
         <v>0.67</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="32">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="32">
         <v>0.5</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="13" t="s">
+      <c r="J17" s="21"/>
+      <c r="K17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="17" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="32">
         <v>4.95</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="32">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>8</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="39">
         <v>34800</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="32">
         <f t="shared" si="0"/>
         <v>34800</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19" t="s">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="32">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="32">
         <f>B20*H20</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="32">
         <v>2.21</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="32">
         <f>B21*H21</f>
         <v>2.21</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="13" t="s">
+      <c r="J21" s="21"/>
+      <c r="K21" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="32">
         <v>6.27</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="32">
         <f>B22*H22</f>
         <v>6.27</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="13"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>12</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="33">
         <v>3.51</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="32">
         <f>B23*H23</f>
         <v>3.51</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>16</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="41">
         <v>0.223</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="32">
         <f>B24*H24</f>
         <v>3.5680000000000001</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="J24" s="21"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>14</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="I25" s="32">
+        <f>B25*H25</f>
+        <v>1.45</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>15</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="13"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="13"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>17</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="13"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>18</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>19</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="13"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>20</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="27" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="2"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="29" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="30">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="26">
         <v>23</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="29" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="30">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="26">
         <f>SUMIF(K12:K35,"SMT",B12:B35)</f>
         <v>6</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="29" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="30">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="26">
         <f>SUMIF(K12:K35,"thru-hole",B12:B35)</f>
         <v>2</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="29" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="30">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="26">
         <f>SUMIF(K12:K35,"fine pitch",B12:B35)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="31" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="32">
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="28">
         <v>0</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1714,9 +1752,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" display="http://digikey.com/Suppliers/es/Antenova.page?lang=en"/>
+    <hyperlink ref="D25" r:id="rId2" display="http://digikey.com/Suppliers/us/CUI.page?lang=en"/>
+    <hyperlink ref="D26" r:id="rId3" display="http://digikey.com/Suppliers/us/Tyco-Electronics-Raychem-Circuit-Protection.page?lang=en"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/BOM_arrow1.xlsx
+++ b/BOM_arrow1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t xml:space="preserve">                Bill Of Materials (BOM) OctopusBot BT only V1R2</t>
   </si>
@@ -238,6 +238,63 @@
   </si>
   <si>
     <t>ESD PROTECTOR 0603 24VDC POLYMER</t>
+  </si>
+  <si>
+    <t>931-1166-ND</t>
+  </si>
+  <si>
+    <t>GPS GLONASS MM 3M RG174 SMA(M)</t>
+  </si>
+  <si>
+    <t>Taoglas Limited</t>
+  </si>
+  <si>
+    <t>sma-male</t>
+  </si>
+  <si>
+    <t>GPS GLONASS PATCH 1575.42MHZ</t>
+  </si>
+  <si>
+    <t>535-11940-ND</t>
+  </si>
+  <si>
+    <t>Abracon Corporation</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 0.2A SOD523</t>
+  </si>
+  <si>
+    <t>RB520S30T1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>1N4448W-FDICT-ND</t>
+  </si>
+  <si>
+    <t>Diodes Inc</t>
+  </si>
+  <si>
+    <t>DIODE SWITCHING 75V 0.25A SOD123</t>
+  </si>
+  <si>
+    <t>TRANS GP SS NPN 40V SOT23</t>
+  </si>
+  <si>
+    <t>MMBT3904LT3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>ASSY FOR TFR HEADER W/DETECT (microsd)</t>
+  </si>
+  <si>
+    <t>WM9731CT-ND</t>
+  </si>
+  <si>
+    <t>Molex Inc</t>
+  </si>
+  <si>
+    <t>fine pitch</t>
   </si>
 </sst>
 </file>
@@ -424,7 +481,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -471,15 +528,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1"/>
@@ -513,6 +566,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -525,10 +582,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
@@ -834,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,11 +901,11 @@
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -984,7 +1037,7 @@
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -993,10 +1046,10 @@
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="29" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1033,20 +1086,20 @@
       <c r="E12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <v>9.9499999999999993</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="30">
         <f>B12*H12</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="12" t="s">
         <v>17</v>
       </c>
@@ -1063,20 +1116,20 @@
       <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="30">
         <v>0.95</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="30">
         <f t="shared" ref="I13:I19" si="0">B13*H13</f>
         <v>0.95</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1095,20 +1148,20 @@
       <c r="E14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="30">
         <v>37000</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="30">
         <f t="shared" si="0"/>
         <v>37000</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="12" t="s">
         <v>14</v>
       </c>
@@ -1121,26 +1174,26 @@
         <v>1</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="30">
         <v>3.89</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="30">
         <f t="shared" si="0"/>
         <v>3.89</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1153,26 +1206,26 @@
         <v>1</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <v>0.67</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="30">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="12" t="s">
@@ -1189,20 +1242,20 @@
       <c r="E17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="30">
         <v>0.5</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="12" t="s">
         <v>14</v>
       </c>
@@ -1215,24 +1268,24 @@
         <v>1</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <v>4.95</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="30">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1255,10 +1308,10 @@
       <c r="G19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="37">
         <v>34800</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="30">
         <f t="shared" si="0"/>
         <v>34800</v>
       </c>
@@ -1281,20 +1334,20 @@
       <c r="E20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I20" s="32">
-        <f>B20*H20</f>
+      <c r="I20" s="30">
+        <f t="shared" ref="I20:I32" si="1">B20*H20</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="20" t="s">
         <v>54</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -1315,20 +1368,20 @@
       <c r="E21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="30">
         <v>2.21</v>
       </c>
-      <c r="I21" s="32">
-        <f>B21*H21</f>
+      <c r="I21" s="30">
+        <f t="shared" si="1"/>
         <v>2.21</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="12" t="s">
         <v>17</v>
       </c>
@@ -1347,20 +1400,20 @@
       <c r="E22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="30">
         <v>6.27</v>
       </c>
-      <c r="I22" s="32">
-        <f>B22*H22</f>
+      <c r="I22" s="30">
+        <f t="shared" si="1"/>
         <v>6.27</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1375,17 +1428,17 @@
       <c r="E23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="31">
         <v>3.51</v>
       </c>
-      <c r="I23" s="32">
-        <f>B23*H23</f>
+      <c r="I23" s="30">
+        <f t="shared" si="1"/>
         <v>3.51</v>
       </c>
       <c r="J23" s="7"/>
@@ -1405,20 +1458,20 @@
       <c r="E24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <v>0.223</v>
       </c>
-      <c r="I24" s="32">
-        <f>B24*H24</f>
+      <c r="I24" s="30">
+        <f t="shared" si="1"/>
         <v>3.5680000000000001</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1429,23 +1482,23 @@
         <v>1</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="41">
         <v>1.45</v>
       </c>
-      <c r="I25" s="32">
-        <f>B25*H25</f>
+      <c r="I25" s="30">
+        <f t="shared" si="1"/>
         <v>1.45</v>
       </c>
       <c r="J25" s="17"/>
@@ -1457,130 +1510,223 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="40" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="31">
         <v>0.15</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="21"/>
+      <c r="I26" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="20"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="31">
+        <v>25.11</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="1"/>
+        <v>25.11</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>17</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="30">
+        <v>1.33</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="1"/>
+        <v>1.33</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>18</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="22"/>
+      <c r="D29" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="30">
+        <v>0.21</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="21"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="31">
+        <v>0.19</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>20</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>21</v>
+      </c>
+      <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
@@ -1593,20 +1739,20 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="1"/>
@@ -1616,12 +1762,12 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1629,17 +1775,19 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="G38" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1649,12 +1797,14 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
+      <c r="G39" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="24">
+        <v>23</v>
+      </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1664,13 +1814,14 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="26">
-        <v>23</v>
+      <c r="G40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="24">
+        <f>SUMIF(K12:K34,"SMT",B12:B34)</f>
+        <v>6</v>
       </c>
       <c r="K40" s="1"/>
     </row>
@@ -1681,14 +1832,14 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="26">
-        <f>SUMIF(K12:K35,"SMT",B12:B35)</f>
-        <v>6</v>
+      <c r="G41" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="24">
+        <f>SUMIF(K12:K34,"thru-hole",B12:B34)</f>
+        <v>2</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -1699,18 +1850,18 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="26">
-        <f>SUMIF(K12:K35,"thru-hole",B12:B35)</f>
-        <v>2</v>
+      <c r="G42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="24">
+        <f>SUMIF(K12:K34,"fine pitch",B12:B34)</f>
+        <v>1</v>
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1718,45 +1869,33 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="26">
-        <f>SUMIF(K12:K35,"fine pitch",B12:B35)</f>
         <v>0</v>
       </c>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="28">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G38:J38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" display="http://digikey.com/Suppliers/es/Antenova.page?lang=en"/>
     <hyperlink ref="D25" r:id="rId2" display="http://digikey.com/Suppliers/us/CUI.page?lang=en"/>
     <hyperlink ref="D26" r:id="rId3" display="http://digikey.com/Suppliers/us/Tyco-Electronics-Raychem-Circuit-Protection.page?lang=en"/>
+    <hyperlink ref="D27" r:id="rId4" display="http://digikey.com/Suppliers/us/Taoglas.page?lang=en"/>
+    <hyperlink ref="D28" r:id="rId5" display="http://digikey.com/Suppliers/us/Abracon.page?lang=en"/>
+    <hyperlink ref="D29" r:id="rId6" display="http://digikey.com/Suppliers/us/ON-Semiconductor.page?lang=en"/>
+    <hyperlink ref="D30" r:id="rId7" display="http://digikey.com/Suppliers/us/Diodes.page?lang=en"/>
+    <hyperlink ref="D31" r:id="rId8" display="http://digikey.com/Suppliers/us/ON-Semiconductor.page?lang=en"/>
+    <hyperlink ref="D32" r:id="rId9" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
 
